--- a/doors-detector/results/house1_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house1_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.832491560134184</v>
+        <v>0.8970945231091944</v>
       </c>
       <c r="F5" t="n">
         <v>1010</v>
       </c>
       <c r="G5" t="n">
-        <v>877</v>
+        <v>929</v>
       </c>
       <c r="H5" t="n">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8178304817039724</v>
+        <v>0.7798989474552361</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6620702163722533</v>
+        <v>0.6629614210029025</v>
       </c>
       <c r="F7" t="n">
         <v>82</v>
       </c>
       <c r="G7" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H7" t="n">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8517837527748433</v>
+        <v>0.8737305122795861</v>
       </c>
       <c r="F8" t="n">
         <v>1010</v>
       </c>
       <c r="G8" t="n">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="H8" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7588639888293573</v>
+        <v>0.8700316866271485</v>
       </c>
       <c r="F9" t="n">
         <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6803305460586552</v>
+        <v>0.6913021327389332</v>
       </c>
       <c r="F10" t="n">
         <v>82</v>
       </c>
       <c r="G10" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8455605084697239</v>
+        <v>0.8536946814110683</v>
       </c>
       <c r="F11" t="n">
         <v>1010</v>
       </c>
       <c r="G11" t="n">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="H11" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.8512064324564325</v>
+        <v>0.8736161904615122</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
@@ -824,7 +824,7 @@
         <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7384589653522311</v>
+        <v>0.7449073076304326</v>
       </c>
       <c r="F13" t="n">
         <v>82</v>
       </c>
       <c r="G13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8492967597088237</v>
+        <v>0.8728207033504841</v>
       </c>
       <c r="F14" t="n">
         <v>1010</v>
       </c>
       <c r="G14" t="n">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="H14" t="n">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8146280658665451</v>
+        <v>0.8815917671416394</v>
       </c>
       <c r="F15" t="n">
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7348951989155511</v>
+        <v>0.7076148051263343</v>
       </c>
       <c r="F16" t="n">
         <v>82</v>
       </c>
       <c r="G16" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H16" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8424611174219295</v>
+        <v>0.867968770335715</v>
       </c>
       <c r="F17" t="n">
         <v>1010</v>
       </c>
       <c r="G17" t="n">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="H17" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9193121693121696</v>
+        <v>0.8750017415534657</v>
       </c>
       <c r="F18" t="n">
         <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7126937313734377</v>
+        <v>0.8007338406443921</v>
       </c>
       <c r="F19" t="n">
         <v>82</v>
       </c>
       <c r="G19" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H19" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
